--- a/3nen_GT_7/DXlib/DXlib/Assets/Data/stage4.xlsx
+++ b/3nen_GT_7/DXlib/DXlib/Assets/Data/stage4.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\K018A1699\3nen_team01\3nen_GT_7\DXlib\DXlib\Assets\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KPC-018A1434\Desktop\Team_7Seven\3nen_GT_7\DXlib\DXlib\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -931,13 +931,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BJ54"/>
+  <dimension ref="A1:BL35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="BO10" sqref="BO10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="64" width="3" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A1">
         <v>1</v>
       </c>
@@ -1124,8 +1129,14 @@
       <c r="BJ1">
         <v>1</v>
       </c>
+      <c r="BK1">
+        <v>1</v>
+      </c>
+      <c r="BL1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1157,7 +1168,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -1199,28 +1210,28 @@
         <v>0</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC2">
         <v>0</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG2">
         <v>0</v>
@@ -1232,19 +1243,19 @@
         <v>0</v>
       </c>
       <c r="AJ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO2">
         <v>0</v>
@@ -1286,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="BB2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC2">
         <v>0</v>
@@ -1310,10 +1321,16 @@
         <v>0</v>
       </c>
       <c r="BJ2">
+        <v>0</v>
+      </c>
+      <c r="BK2">
+        <v>0</v>
+      </c>
+      <c r="BL2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1345,7 +1362,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -1390,46 +1407,46 @@
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC3">
         <v>0</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG3">
         <v>0</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI3">
         <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN3">
         <v>0</v>
@@ -1474,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="BB3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC3">
         <v>0</v>
@@ -1498,10 +1515,16 @@
         <v>0</v>
       </c>
       <c r="BJ3">
+        <v>0</v>
+      </c>
+      <c r="BK3">
+        <v>0</v>
+      </c>
+      <c r="BL3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1533,7 +1556,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -1581,10 +1604,10 @@
         <v>0</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC4">
         <v>0</v>
@@ -1593,10 +1616,10 @@
         <v>0</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG4">
         <v>0</v>
@@ -1608,13 +1631,13 @@
         <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM4">
         <v>0</v>
@@ -1662,7 +1685,7 @@
         <v>0</v>
       </c>
       <c r="BB4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC4">
         <v>0</v>
@@ -1686,10 +1709,16 @@
         <v>0</v>
       </c>
       <c r="BJ4">
+        <v>0</v>
+      </c>
+      <c r="BK4">
+        <v>0</v>
+      </c>
+      <c r="BL4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1703,13 +1732,13 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1721,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1733,10 +1762,10 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -1751,10 +1780,10 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W5">
         <v>0</v>
@@ -1772,34 +1801,34 @@
         <v>0</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL5">
         <v>0</v>
@@ -1817,10 +1846,10 @@
         <v>0</v>
       </c>
       <c r="AQ5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS5">
         <v>0</v>
@@ -1835,10 +1864,10 @@
         <v>0</v>
       </c>
       <c r="AW5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY5">
         <v>0</v>
@@ -1850,7 +1879,7 @@
         <v>0</v>
       </c>
       <c r="BB5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC5">
         <v>0</v>
@@ -1862,22 +1891,28 @@
         <v>0</v>
       </c>
       <c r="BF5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI5">
         <v>0</v>
       </c>
       <c r="BJ5">
+        <v>0</v>
+      </c>
+      <c r="BK5">
+        <v>0</v>
+      </c>
+      <c r="BL5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1891,13 +1926,13 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1909,7 +1944,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -2038,7 +2073,7 @@
         <v>0</v>
       </c>
       <c r="BB6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC6">
         <v>0</v>
@@ -2050,22 +2085,28 @@
         <v>0</v>
       </c>
       <c r="BF6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG6">
         <v>0</v>
       </c>
       <c r="BH6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI6">
         <v>0</v>
       </c>
       <c r="BJ6">
+        <v>0</v>
+      </c>
+      <c r="BK6">
+        <v>0</v>
+      </c>
+      <c r="BL6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2079,13 +2120,13 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -2097,7 +2138,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -2226,7 +2267,7 @@
         <v>0</v>
       </c>
       <c r="BB7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC7">
         <v>0</v>
@@ -2238,22 +2279,28 @@
         <v>0</v>
       </c>
       <c r="BF7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI7">
         <v>0</v>
       </c>
       <c r="BJ7">
+        <v>0</v>
+      </c>
+      <c r="BK7">
+        <v>0</v>
+      </c>
+      <c r="BL7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2438,10 +2485,16 @@
         <v>0</v>
       </c>
       <c r="BJ8">
+        <v>0</v>
+      </c>
+      <c r="BK8">
+        <v>0</v>
+      </c>
+      <c r="BL8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>1</v>
       </c>
@@ -2626,10 +2679,16 @@
         <v>0</v>
       </c>
       <c r="BJ9">
+        <v>0</v>
+      </c>
+      <c r="BK9">
+        <v>0</v>
+      </c>
+      <c r="BL9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>1</v>
       </c>
@@ -2712,7 +2771,7 @@
         <v>0</v>
       </c>
       <c r="AB10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC10">
         <v>0</v>
@@ -2724,22 +2783,22 @@
         <v>0</v>
       </c>
       <c r="AF10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG10">
         <v>0</v>
       </c>
       <c r="AH10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL10">
         <v>0</v>
@@ -2814,33 +2873,39 @@
         <v>0</v>
       </c>
       <c r="BJ10">
+        <v>0</v>
+      </c>
+      <c r="BK10">
+        <v>0</v>
+      </c>
+      <c r="BL10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>1</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -2900,7 +2965,7 @@
         <v>0</v>
       </c>
       <c r="AB11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC11">
         <v>0</v>
@@ -2912,13 +2977,13 @@
         <v>0</v>
       </c>
       <c r="AF11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG11">
         <v>0</v>
       </c>
       <c r="AH11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI11">
         <v>0</v>
@@ -2951,10 +3016,10 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -2966,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="AX11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY11">
         <v>0</v>
@@ -2987,25 +3052,31 @@
         <v>0</v>
       </c>
       <c r="BE11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ11">
         <v>1</v>
       </c>
+      <c r="BK11">
+        <v>1</v>
+      </c>
+      <c r="BL11">
+        <v>1</v>
+      </c>
     </row>
-    <row r="12" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>1</v>
       </c>
@@ -3091,13 +3162,13 @@
         <v>0</v>
       </c>
       <c r="AC12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD12">
         <v>0</v>
       </c>
       <c r="AE12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -3106,13 +3177,13 @@
         <v>0</v>
       </c>
       <c r="AH12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK12">
         <v>0</v>
@@ -3139,10 +3210,10 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3154,7 +3225,7 @@
         <v>0</v>
       </c>
       <c r="AX12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY12">
         <v>0</v>
@@ -3190,10 +3261,16 @@
         <v>0</v>
       </c>
       <c r="BJ12">
+        <v>0</v>
+      </c>
+      <c r="BK12">
+        <v>0</v>
+      </c>
+      <c r="BL12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>1</v>
       </c>
@@ -3231,13 +3308,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -3252,13 +3329,13 @@
         <v>0</v>
       </c>
       <c r="T13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W13">
         <v>0</v>
@@ -3279,13 +3356,13 @@
         <v>0</v>
       </c>
       <c r="AC13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD13">
         <v>0</v>
       </c>
       <c r="AE13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF13">
         <v>0</v>
@@ -3294,7 +3371,7 @@
         <v>0</v>
       </c>
       <c r="AH13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI13">
         <v>0</v>
@@ -3327,10 +3404,10 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3342,7 +3419,7 @@
         <v>0</v>
       </c>
       <c r="AX13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY13">
         <v>0</v>
@@ -3378,10 +3455,16 @@
         <v>0</v>
       </c>
       <c r="BJ13">
+        <v>0</v>
+      </c>
+      <c r="BK13">
+        <v>0</v>
+      </c>
+      <c r="BL13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>1</v>
       </c>
@@ -3395,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -3419,7 +3502,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -3446,7 +3529,7 @@
         <v>0</v>
       </c>
       <c r="V14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W14">
         <v>0</v>
@@ -3470,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="AD14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE14">
         <v>0</v>
@@ -3482,16 +3565,16 @@
         <v>0</v>
       </c>
       <c r="AH14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL14">
         <v>0</v>
@@ -3515,7 +3598,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT14">
         <v>0</v>
@@ -3530,7 +3613,7 @@
         <v>0</v>
       </c>
       <c r="AX14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY14">
         <v>0</v>
@@ -3566,10 +3649,16 @@
         <v>0</v>
       </c>
       <c r="BJ14">
+        <v>0</v>
+      </c>
+      <c r="BK14">
+        <v>0</v>
+      </c>
+      <c r="BL14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>1</v>
       </c>
@@ -3580,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -3592,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -3607,7 +3696,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -3634,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="V15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W15">
         <v>0</v>
@@ -3703,7 +3792,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT15">
         <v>0</v>
@@ -3715,7 +3804,7 @@
         <v>0</v>
       </c>
       <c r="AW15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX15">
         <v>0</v>
@@ -3730,22 +3819,22 @@
         <v>0</v>
       </c>
       <c r="BB15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH15">
         <v>0</v>
@@ -3754,10 +3843,16 @@
         <v>0</v>
       </c>
       <c r="BJ15">
+        <v>0</v>
+      </c>
+      <c r="BK15">
+        <v>0</v>
+      </c>
+      <c r="BL15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>1</v>
       </c>
@@ -3768,19 +3863,19 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -3804,16 +3899,16 @@
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T16">
         <v>0</v>
@@ -3891,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT16">
         <v>0</v>
@@ -3900,7 +3995,7 @@
         <v>0</v>
       </c>
       <c r="AV16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW16">
         <v>0</v>
@@ -3915,7 +4010,7 @@
         <v>0</v>
       </c>
       <c r="BA16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB16">
         <v>0</v>
@@ -3924,10 +4019,10 @@
         <v>0</v>
       </c>
       <c r="BD16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF16">
         <v>0</v>
@@ -3936,16 +4031,22 @@
         <v>0</v>
       </c>
       <c r="BH16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI16">
         <v>0</v>
       </c>
       <c r="BJ16">
+        <v>0</v>
+      </c>
+      <c r="BK16">
+        <v>0</v>
+      </c>
+      <c r="BL16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>1</v>
       </c>
@@ -3956,19 +4057,19 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -3992,7 +4093,7 @@
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17">
         <v>0</v>
@@ -4001,7 +4102,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T17">
         <v>0</v>
@@ -4064,13 +4165,13 @@
         <v>0</v>
       </c>
       <c r="AN17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ17">
         <v>0</v>
@@ -4079,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT17">
         <v>0</v>
@@ -4088,7 +4189,7 @@
         <v>0</v>
       </c>
       <c r="AV17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW17">
         <v>0</v>
@@ -4100,7 +4201,7 @@
         <v>0</v>
       </c>
       <c r="AZ17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA17">
         <v>0</v>
@@ -4109,16 +4210,16 @@
         <v>0</v>
       </c>
       <c r="BC17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG17">
         <v>0</v>
@@ -4127,13 +4228,19 @@
         <v>0</v>
       </c>
       <c r="BI17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ17">
+        <v>0</v>
+      </c>
+      <c r="BK17">
+        <v>0</v>
+      </c>
+      <c r="BL17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>1</v>
       </c>
@@ -4144,7 +4251,7 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -4156,7 +4263,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -4180,7 +4287,7 @@
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18">
         <v>0</v>
@@ -4189,7 +4296,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T18">
         <v>0</v>
@@ -4267,7 +4374,7 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT18">
         <v>0</v>
@@ -4276,7 +4383,7 @@
         <v>0</v>
       </c>
       <c r="AV18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW18">
         <v>0</v>
@@ -4288,7 +4395,7 @@
         <v>0</v>
       </c>
       <c r="AZ18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA18">
         <v>0</v>
@@ -4297,16 +4404,16 @@
         <v>0</v>
       </c>
       <c r="BC18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG18">
         <v>0</v>
@@ -4315,13 +4422,19 @@
         <v>0</v>
       </c>
       <c r="BI18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ18">
+        <v>0</v>
+      </c>
+      <c r="BK18">
+        <v>0</v>
+      </c>
+      <c r="BL18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>1</v>
       </c>
@@ -4335,13 +4448,13 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -4368,16 +4481,16 @@
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T19">
         <v>0</v>
@@ -4407,28 +4520,28 @@
         <v>0</v>
       </c>
       <c r="AC19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK19">
         <v>0</v>
@@ -4455,7 +4568,7 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT19">
         <v>0</v>
@@ -4464,7 +4577,7 @@
         <v>0</v>
       </c>
       <c r="AV19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW19">
         <v>0</v>
@@ -4479,7 +4592,7 @@
         <v>0</v>
       </c>
       <c r="BA19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB19">
         <v>0</v>
@@ -4488,10 +4601,10 @@
         <v>0</v>
       </c>
       <c r="BD19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF19">
         <v>0</v>
@@ -4500,16 +4613,22 @@
         <v>0</v>
       </c>
       <c r="BH19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI19">
         <v>0</v>
       </c>
       <c r="BJ19">
+        <v>0</v>
+      </c>
+      <c r="BK19">
+        <v>0</v>
+      </c>
+      <c r="BL19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>1</v>
       </c>
@@ -4547,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -4574,7 +4693,7 @@
         <v>0</v>
       </c>
       <c r="V20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20">
         <v>0</v>
@@ -4643,7 +4762,7 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT20">
         <v>0</v>
@@ -4655,7 +4774,7 @@
         <v>0</v>
       </c>
       <c r="AW20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX20">
         <v>0</v>
@@ -4670,22 +4789,22 @@
         <v>0</v>
       </c>
       <c r="BB20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH20">
         <v>0</v>
@@ -4694,10 +4813,16 @@
         <v>0</v>
       </c>
       <c r="BJ20">
+        <v>0</v>
+      </c>
+      <c r="BK20">
+        <v>0</v>
+      </c>
+      <c r="BL20">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>1</v>
       </c>
@@ -4735,7 +4860,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -4762,7 +4887,7 @@
         <v>0</v>
       </c>
       <c r="V21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21">
         <v>0</v>
@@ -4831,10 +4956,10 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU21">
         <v>0</v>
@@ -4846,7 +4971,7 @@
         <v>0</v>
       </c>
       <c r="AX21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY21">
         <v>0</v>
@@ -4882,10 +5007,16 @@
         <v>0</v>
       </c>
       <c r="BJ21">
+        <v>0</v>
+      </c>
+      <c r="BK21">
+        <v>0</v>
+      </c>
+      <c r="BL21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>1</v>
       </c>
@@ -4923,13 +5054,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22">
         <v>0</v>
@@ -4944,13 +5075,13 @@
         <v>0</v>
       </c>
       <c r="T22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22">
         <v>0</v>
@@ -5019,10 +5150,10 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU22">
         <v>0</v>
@@ -5034,7 +5165,7 @@
         <v>0</v>
       </c>
       <c r="AX22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY22">
         <v>0</v>
@@ -5070,10 +5201,16 @@
         <v>0</v>
       </c>
       <c r="BJ22">
+        <v>0</v>
+      </c>
+      <c r="BK22">
+        <v>0</v>
+      </c>
+      <c r="BL22">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>1</v>
       </c>
@@ -5168,10 +5305,10 @@
         <v>0</v>
       </c>
       <c r="AF23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH23">
         <v>0</v>
@@ -5207,10 +5344,10 @@
         <v>0</v>
       </c>
       <c r="AS23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU23">
         <v>0</v>
@@ -5231,13 +5368,13 @@
         <v>0</v>
       </c>
       <c r="BA23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD23">
         <v>0</v>
@@ -5246,22 +5383,28 @@
         <v>0</v>
       </c>
       <c r="BF23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI23">
         <v>0</v>
       </c>
       <c r="BJ23">
+        <v>0</v>
+      </c>
+      <c r="BK23">
+        <v>0</v>
+      </c>
+      <c r="BL23">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>1</v>
       </c>
@@ -5356,10 +5499,10 @@
         <v>0</v>
       </c>
       <c r="AF24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH24">
         <v>0</v>
@@ -5416,7 +5559,7 @@
         <v>0</v>
       </c>
       <c r="AZ24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA24">
         <v>0</v>
@@ -5428,10 +5571,10 @@
         <v>0</v>
       </c>
       <c r="BD24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF24">
         <v>0</v>
@@ -5443,13 +5586,19 @@
         <v>0</v>
       </c>
       <c r="BI24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ24">
+        <v>0</v>
+      </c>
+      <c r="BK24">
+        <v>0</v>
+      </c>
+      <c r="BL24">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>1</v>
       </c>
@@ -5463,13 +5612,13 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -5478,13 +5627,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -5544,10 +5693,10 @@
         <v>0</v>
       </c>
       <c r="AF25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH25">
         <v>0</v>
@@ -5604,7 +5753,7 @@
         <v>0</v>
       </c>
       <c r="AZ25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA25">
         <v>0</v>
@@ -5619,7 +5768,7 @@
         <v>0</v>
       </c>
       <c r="BE25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF25">
         <v>0</v>
@@ -5631,13 +5780,19 @@
         <v>0</v>
       </c>
       <c r="BI25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ25">
+        <v>0</v>
+      </c>
+      <c r="BK25">
+        <v>0</v>
+      </c>
+      <c r="BL25">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>1</v>
       </c>
@@ -5648,7 +5803,7 @@
         <v>0</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -5660,10 +5815,10 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -5675,7 +5830,7 @@
         <v>0</v>
       </c>
       <c r="M26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N26">
         <v>0</v>
@@ -5723,28 +5878,28 @@
         <v>0</v>
       </c>
       <c r="AC26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK26">
         <v>0</v>
@@ -5792,7 +5947,7 @@
         <v>0</v>
       </c>
       <c r="AZ26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA26">
         <v>0</v>
@@ -5804,7 +5959,7 @@
         <v>0</v>
       </c>
       <c r="BD26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE26">
         <v>0</v>
@@ -5819,13 +5974,19 @@
         <v>0</v>
       </c>
       <c r="BI26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ26">
+        <v>0</v>
+      </c>
+      <c r="BK26">
+        <v>0</v>
+      </c>
+      <c r="BL26">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>1</v>
       </c>
@@ -5836,7 +5997,7 @@
         <v>0</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -5863,7 +6024,7 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -5911,28 +6072,28 @@
         <v>0</v>
       </c>
       <c r="AC27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK27">
         <v>0</v>
@@ -5980,7 +6141,7 @@
         <v>0</v>
       </c>
       <c r="AZ27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA27">
         <v>0</v>
@@ -5995,7 +6156,7 @@
         <v>0</v>
       </c>
       <c r="BE27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF27">
         <v>0</v>
@@ -6007,13 +6168,19 @@
         <v>0</v>
       </c>
       <c r="BI27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ27">
+        <v>0</v>
+      </c>
+      <c r="BK27">
+        <v>0</v>
+      </c>
+      <c r="BL27">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>1</v>
       </c>
@@ -6024,7 +6191,7 @@
         <v>0</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -6051,7 +6218,7 @@
         <v>0</v>
       </c>
       <c r="M28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -6108,10 +6275,10 @@
         <v>0</v>
       </c>
       <c r="AF28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH28">
         <v>0</v>
@@ -6168,7 +6335,7 @@
         <v>0</v>
       </c>
       <c r="AZ28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA28">
         <v>0</v>
@@ -6180,7 +6347,7 @@
         <v>0</v>
       </c>
       <c r="BD28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE28">
         <v>0</v>
@@ -6195,13 +6362,19 @@
         <v>0</v>
       </c>
       <c r="BI28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ28">
+        <v>0</v>
+      </c>
+      <c r="BK28">
+        <v>0</v>
+      </c>
+      <c r="BL28">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>1</v>
       </c>
@@ -6212,7 +6385,7 @@
         <v>0</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -6224,10 +6397,10 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -6239,7 +6412,7 @@
         <v>0</v>
       </c>
       <c r="M29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N29">
         <v>0</v>
@@ -6254,25 +6427,25 @@
         <v>0</v>
       </c>
       <c r="R29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y29">
         <v>0</v>
@@ -6296,10 +6469,10 @@
         <v>0</v>
       </c>
       <c r="AF29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH29">
         <v>0</v>
@@ -6323,25 +6496,25 @@
         <v>0</v>
       </c>
       <c r="AO29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV29">
         <v>0</v>
@@ -6359,7 +6532,7 @@
         <v>0</v>
       </c>
       <c r="BA29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB29">
         <v>0</v>
@@ -6380,16 +6553,22 @@
         <v>0</v>
       </c>
       <c r="BH29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI29">
         <v>0</v>
       </c>
       <c r="BJ29">
+        <v>0</v>
+      </c>
+      <c r="BK29">
+        <v>0</v>
+      </c>
+      <c r="BL29">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>1</v>
       </c>
@@ -6400,7 +6579,7 @@
         <v>0</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -6412,10 +6591,10 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -6427,7 +6606,7 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N30">
         <v>0</v>
@@ -6484,10 +6663,10 @@
         <v>0</v>
       </c>
       <c r="AF30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH30">
         <v>0</v>
@@ -6550,7 +6729,7 @@
         <v>0</v>
       </c>
       <c r="BB30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC30">
         <v>0</v>
@@ -6565,7 +6744,7 @@
         <v>0</v>
       </c>
       <c r="BG30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH30">
         <v>0</v>
@@ -6574,10 +6753,16 @@
         <v>0</v>
       </c>
       <c r="BJ30">
+        <v>0</v>
+      </c>
+      <c r="BK30">
+        <v>0</v>
+      </c>
+      <c r="BL30">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>1</v>
       </c>
@@ -6591,7 +6776,7 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -6612,7 +6797,7 @@
         <v>0</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M31">
         <v>0</v>
@@ -6741,7 +6926,7 @@
         <v>0</v>
       </c>
       <c r="BC31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD31">
         <v>0</v>
@@ -6750,7 +6935,7 @@
         <v>0</v>
       </c>
       <c r="BF31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG31">
         <v>0</v>
@@ -6762,10 +6947,16 @@
         <v>0</v>
       </c>
       <c r="BJ31">
+        <v>0</v>
+      </c>
+      <c r="BK31">
+        <v>0</v>
+      </c>
+      <c r="BL31">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>1</v>
       </c>
@@ -6782,7 +6973,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -6797,7 +6988,7 @@
         <v>0</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -6950,10 +7141,16 @@
         <v>0</v>
       </c>
       <c r="BJ32">
+        <v>0</v>
+      </c>
+      <c r="BK32">
+        <v>0</v>
+      </c>
+      <c r="BL32">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>1</v>
       </c>
@@ -6973,7 +7170,7 @@
         <v>0</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -6982,7 +7179,7 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -7138,10 +7335,16 @@
         <v>0</v>
       </c>
       <c r="BJ33">
+        <v>0</v>
+      </c>
+      <c r="BK33">
+        <v>0</v>
+      </c>
+      <c r="BL33">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>1</v>
       </c>
@@ -7326,3771 +7529,231 @@
         <v>0</v>
       </c>
       <c r="BJ34">
+        <v>0</v>
+      </c>
+      <c r="BK34">
+        <v>0</v>
+      </c>
+      <c r="BL34">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>1</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:62" x14ac:dyDescent="0.45">
-      <c r="A36">
-        <v>1</v>
-      </c>
-      <c r="B36">
-        <v>0</v>
-      </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-      <c r="L36">
-        <v>0</v>
-      </c>
-      <c r="M36">
-        <v>0</v>
-      </c>
-      <c r="N36">
-        <v>0</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>0</v>
-      </c>
-      <c r="R36">
-        <v>0</v>
-      </c>
-      <c r="S36">
-        <v>0</v>
-      </c>
-      <c r="T36">
-        <v>0</v>
-      </c>
-      <c r="U36">
-        <v>0</v>
-      </c>
-      <c r="V36">
-        <v>0</v>
-      </c>
-      <c r="W36">
-        <v>0</v>
-      </c>
-      <c r="X36">
-        <v>0</v>
-      </c>
-      <c r="Y36">
-        <v>0</v>
-      </c>
-      <c r="Z36">
-        <v>0</v>
-      </c>
-      <c r="AA36">
-        <v>0</v>
-      </c>
-      <c r="AB36">
-        <v>0</v>
-      </c>
-      <c r="AC36">
-        <v>0</v>
-      </c>
-      <c r="AD36">
-        <v>0</v>
-      </c>
-      <c r="AE36">
-        <v>0</v>
-      </c>
-      <c r="AF36">
-        <v>0</v>
-      </c>
-      <c r="AG36">
-        <v>0</v>
-      </c>
-      <c r="AH36">
-        <v>0</v>
-      </c>
-      <c r="AI36">
-        <v>0</v>
-      </c>
-      <c r="AJ36">
-        <v>0</v>
-      </c>
-      <c r="AK36">
-        <v>0</v>
-      </c>
-      <c r="AL36">
-        <v>0</v>
-      </c>
-      <c r="AM36">
-        <v>0</v>
-      </c>
-      <c r="AN36">
-        <v>0</v>
-      </c>
-      <c r="AO36">
-        <v>0</v>
-      </c>
-      <c r="AP36">
-        <v>0</v>
-      </c>
-      <c r="AQ36">
-        <v>0</v>
-      </c>
-      <c r="AR36">
-        <v>0</v>
-      </c>
-      <c r="AS36">
-        <v>0</v>
-      </c>
-      <c r="AT36">
-        <v>0</v>
-      </c>
-      <c r="AU36">
-        <v>0</v>
-      </c>
-      <c r="AV36">
-        <v>0</v>
-      </c>
-      <c r="AW36">
-        <v>0</v>
-      </c>
-      <c r="AX36">
-        <v>0</v>
-      </c>
-      <c r="AY36">
-        <v>0</v>
-      </c>
-      <c r="AZ36">
-        <v>0</v>
-      </c>
-      <c r="BA36">
-        <v>0</v>
-      </c>
-      <c r="BB36">
-        <v>0</v>
-      </c>
-      <c r="BC36">
-        <v>0</v>
-      </c>
-      <c r="BD36">
-        <v>0</v>
-      </c>
-      <c r="BE36">
-        <v>0</v>
-      </c>
-      <c r="BF36">
-        <v>0</v>
-      </c>
-      <c r="BG36">
-        <v>0</v>
-      </c>
-      <c r="BH36">
-        <v>0</v>
-      </c>
-      <c r="BI36">
-        <v>0</v>
-      </c>
-      <c r="BJ36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:62" x14ac:dyDescent="0.45">
-      <c r="A37">
-        <v>1</v>
-      </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
-      <c r="L37">
-        <v>0</v>
-      </c>
-      <c r="M37">
-        <v>0</v>
-      </c>
-      <c r="N37">
-        <v>0</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>0</v>
-      </c>
-      <c r="R37">
-        <v>0</v>
-      </c>
-      <c r="S37">
-        <v>0</v>
-      </c>
-      <c r="T37">
-        <v>0</v>
-      </c>
-      <c r="U37">
-        <v>0</v>
-      </c>
-      <c r="V37">
-        <v>0</v>
-      </c>
-      <c r="W37">
-        <v>0</v>
-      </c>
-      <c r="X37">
-        <v>0</v>
-      </c>
-      <c r="Y37">
-        <v>0</v>
-      </c>
-      <c r="Z37">
-        <v>0</v>
-      </c>
-      <c r="AA37">
-        <v>0</v>
-      </c>
-      <c r="AB37">
-        <v>0</v>
-      </c>
-      <c r="AC37">
-        <v>0</v>
-      </c>
-      <c r="AD37">
-        <v>0</v>
-      </c>
-      <c r="AE37">
-        <v>0</v>
-      </c>
-      <c r="AF37">
-        <v>0</v>
-      </c>
-      <c r="AG37">
-        <v>0</v>
-      </c>
-      <c r="AH37">
-        <v>0</v>
-      </c>
-      <c r="AI37">
-        <v>0</v>
-      </c>
-      <c r="AJ37">
-        <v>0</v>
-      </c>
-      <c r="AK37">
-        <v>0</v>
-      </c>
-      <c r="AL37">
-        <v>0</v>
-      </c>
-      <c r="AM37">
-        <v>0</v>
-      </c>
-      <c r="AN37">
-        <v>0</v>
-      </c>
-      <c r="AO37">
-        <v>0</v>
-      </c>
-      <c r="AP37">
-        <v>0</v>
-      </c>
-      <c r="AQ37">
-        <v>0</v>
-      </c>
-      <c r="AR37">
-        <v>0</v>
-      </c>
-      <c r="AS37">
-        <v>0</v>
-      </c>
-      <c r="AT37">
-        <v>0</v>
-      </c>
-      <c r="AU37">
-        <v>0</v>
-      </c>
-      <c r="AV37">
-        <v>0</v>
-      </c>
-      <c r="AW37">
-        <v>0</v>
-      </c>
-      <c r="AX37">
-        <v>0</v>
-      </c>
-      <c r="AY37">
-        <v>0</v>
-      </c>
-      <c r="AZ37">
-        <v>0</v>
-      </c>
-      <c r="BA37">
-        <v>0</v>
-      </c>
-      <c r="BB37">
-        <v>0</v>
-      </c>
-      <c r="BC37">
-        <v>0</v>
-      </c>
-      <c r="BD37">
-        <v>0</v>
-      </c>
-      <c r="BE37">
-        <v>0</v>
-      </c>
-      <c r="BF37">
-        <v>0</v>
-      </c>
-      <c r="BG37">
-        <v>0</v>
-      </c>
-      <c r="BH37">
-        <v>0</v>
-      </c>
-      <c r="BI37">
-        <v>0</v>
-      </c>
-      <c r="BJ37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:62" x14ac:dyDescent="0.45">
-      <c r="A38">
-        <v>1</v>
-      </c>
-      <c r="B38">
-        <v>0</v>
-      </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
-      <c r="L38">
-        <v>0</v>
-      </c>
-      <c r="M38">
-        <v>0</v>
-      </c>
-      <c r="N38">
-        <v>0</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>0</v>
-      </c>
-      <c r="R38">
-        <v>0</v>
-      </c>
-      <c r="S38">
-        <v>0</v>
-      </c>
-      <c r="T38">
-        <v>0</v>
-      </c>
-      <c r="U38">
-        <v>0</v>
-      </c>
-      <c r="V38">
-        <v>0</v>
-      </c>
-      <c r="W38">
-        <v>0</v>
-      </c>
-      <c r="X38">
-        <v>0</v>
-      </c>
-      <c r="Y38">
-        <v>0</v>
-      </c>
-      <c r="Z38">
-        <v>0</v>
-      </c>
-      <c r="AA38">
-        <v>0</v>
-      </c>
-      <c r="AB38">
-        <v>0</v>
-      </c>
-      <c r="AC38">
-        <v>0</v>
-      </c>
-      <c r="AD38">
-        <v>0</v>
-      </c>
-      <c r="AE38">
-        <v>0</v>
-      </c>
-      <c r="AF38">
-        <v>0</v>
-      </c>
-      <c r="AG38">
-        <v>0</v>
-      </c>
-      <c r="AH38">
-        <v>0</v>
-      </c>
-      <c r="AI38">
-        <v>0</v>
-      </c>
-      <c r="AJ38">
-        <v>0</v>
-      </c>
-      <c r="AK38">
-        <v>0</v>
-      </c>
-      <c r="AL38">
-        <v>0</v>
-      </c>
-      <c r="AM38">
-        <v>0</v>
-      </c>
-      <c r="AN38">
-        <v>0</v>
-      </c>
-      <c r="AO38">
-        <v>0</v>
-      </c>
-      <c r="AP38">
-        <v>0</v>
-      </c>
-      <c r="AQ38">
-        <v>0</v>
-      </c>
-      <c r="AR38">
-        <v>0</v>
-      </c>
-      <c r="AS38">
-        <v>0</v>
-      </c>
-      <c r="AT38">
-        <v>0</v>
-      </c>
-      <c r="AU38">
-        <v>0</v>
-      </c>
-      <c r="AV38">
-        <v>0</v>
-      </c>
-      <c r="AW38">
-        <v>0</v>
-      </c>
-      <c r="AX38">
-        <v>0</v>
-      </c>
-      <c r="AY38">
-        <v>0</v>
-      </c>
-      <c r="AZ38">
-        <v>0</v>
-      </c>
-      <c r="BA38">
-        <v>0</v>
-      </c>
-      <c r="BB38">
-        <v>0</v>
-      </c>
-      <c r="BC38">
-        <v>0</v>
-      </c>
-      <c r="BD38">
-        <v>0</v>
-      </c>
-      <c r="BE38">
-        <v>0</v>
-      </c>
-      <c r="BF38">
-        <v>0</v>
-      </c>
-      <c r="BG38">
-        <v>0</v>
-      </c>
-      <c r="BH38">
-        <v>0</v>
-      </c>
-      <c r="BI38">
-        <v>0</v>
-      </c>
-      <c r="BJ38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:62" x14ac:dyDescent="0.45">
-      <c r="A39">
-        <v>1</v>
-      </c>
-      <c r="B39">
-        <v>0</v>
-      </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-      <c r="K39">
-        <v>0</v>
-      </c>
-      <c r="L39">
-        <v>0</v>
-      </c>
-      <c r="M39">
-        <v>0</v>
-      </c>
-      <c r="N39">
-        <v>0</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>0</v>
-      </c>
-      <c r="R39">
-        <v>0</v>
-      </c>
-      <c r="S39">
-        <v>0</v>
-      </c>
-      <c r="T39">
-        <v>0</v>
-      </c>
-      <c r="U39">
-        <v>0</v>
-      </c>
-      <c r="V39">
-        <v>0</v>
-      </c>
-      <c r="W39">
-        <v>0</v>
-      </c>
-      <c r="X39">
-        <v>0</v>
-      </c>
-      <c r="Y39">
-        <v>0</v>
-      </c>
-      <c r="Z39">
-        <v>0</v>
-      </c>
-      <c r="AA39">
-        <v>0</v>
-      </c>
-      <c r="AB39">
-        <v>0</v>
-      </c>
-      <c r="AC39">
-        <v>0</v>
-      </c>
-      <c r="AD39">
-        <v>0</v>
-      </c>
-      <c r="AE39">
-        <v>0</v>
-      </c>
-      <c r="AF39">
-        <v>0</v>
-      </c>
-      <c r="AG39">
-        <v>0</v>
-      </c>
-      <c r="AH39">
-        <v>0</v>
-      </c>
-      <c r="AI39">
-        <v>0</v>
-      </c>
-      <c r="AJ39">
-        <v>0</v>
-      </c>
-      <c r="AK39">
-        <v>0</v>
-      </c>
-      <c r="AL39">
-        <v>0</v>
-      </c>
-      <c r="AM39">
-        <v>0</v>
-      </c>
-      <c r="AN39">
-        <v>0</v>
-      </c>
-      <c r="AO39">
-        <v>0</v>
-      </c>
-      <c r="AP39">
-        <v>0</v>
-      </c>
-      <c r="AQ39">
-        <v>0</v>
-      </c>
-      <c r="AR39">
-        <v>0</v>
-      </c>
-      <c r="AS39">
-        <v>0</v>
-      </c>
-      <c r="AT39">
-        <v>0</v>
-      </c>
-      <c r="AU39">
-        <v>0</v>
-      </c>
-      <c r="AV39">
-        <v>0</v>
-      </c>
-      <c r="AW39">
-        <v>0</v>
-      </c>
-      <c r="AX39">
-        <v>0</v>
-      </c>
-      <c r="AY39">
-        <v>0</v>
-      </c>
-      <c r="AZ39">
-        <v>0</v>
-      </c>
-      <c r="BA39">
-        <v>0</v>
-      </c>
-      <c r="BB39">
-        <v>0</v>
-      </c>
-      <c r="BC39">
-        <v>0</v>
-      </c>
-      <c r="BD39">
-        <v>0</v>
-      </c>
-      <c r="BE39">
-        <v>0</v>
-      </c>
-      <c r="BF39">
-        <v>0</v>
-      </c>
-      <c r="BG39">
-        <v>0</v>
-      </c>
-      <c r="BH39">
-        <v>0</v>
-      </c>
-      <c r="BI39">
-        <v>0</v>
-      </c>
-      <c r="BJ39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:62" x14ac:dyDescent="0.45">
-      <c r="A40">
-        <v>1</v>
-      </c>
-      <c r="B40">
-        <v>0</v>
-      </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
-      <c r="K40">
-        <v>0</v>
-      </c>
-      <c r="L40">
-        <v>0</v>
-      </c>
-      <c r="M40">
-        <v>0</v>
-      </c>
-      <c r="N40">
-        <v>0</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>0</v>
-      </c>
-      <c r="R40">
-        <v>0</v>
-      </c>
-      <c r="S40">
-        <v>0</v>
-      </c>
-      <c r="T40">
-        <v>0</v>
-      </c>
-      <c r="U40">
-        <v>0</v>
-      </c>
-      <c r="V40">
-        <v>0</v>
-      </c>
-      <c r="W40">
-        <v>0</v>
-      </c>
-      <c r="X40">
-        <v>0</v>
-      </c>
-      <c r="Y40">
-        <v>0</v>
-      </c>
-      <c r="Z40">
-        <v>0</v>
-      </c>
-      <c r="AA40">
-        <v>0</v>
-      </c>
-      <c r="AB40">
-        <v>0</v>
-      </c>
-      <c r="AC40">
-        <v>0</v>
-      </c>
-      <c r="AD40">
-        <v>0</v>
-      </c>
-      <c r="AE40">
-        <v>0</v>
-      </c>
-      <c r="AF40">
-        <v>0</v>
-      </c>
-      <c r="AG40">
-        <v>0</v>
-      </c>
-      <c r="AH40">
-        <v>0</v>
-      </c>
-      <c r="AI40">
-        <v>0</v>
-      </c>
-      <c r="AJ40">
-        <v>0</v>
-      </c>
-      <c r="AK40">
-        <v>0</v>
-      </c>
-      <c r="AL40">
-        <v>0</v>
-      </c>
-      <c r="AM40">
-        <v>0</v>
-      </c>
-      <c r="AN40">
-        <v>0</v>
-      </c>
-      <c r="AO40">
-        <v>0</v>
-      </c>
-      <c r="AP40">
-        <v>0</v>
-      </c>
-      <c r="AQ40">
-        <v>0</v>
-      </c>
-      <c r="AR40">
-        <v>0</v>
-      </c>
-      <c r="AS40">
-        <v>0</v>
-      </c>
-      <c r="AT40">
-        <v>0</v>
-      </c>
-      <c r="AU40">
-        <v>0</v>
-      </c>
-      <c r="AV40">
-        <v>0</v>
-      </c>
-      <c r="AW40">
-        <v>0</v>
-      </c>
-      <c r="AX40">
-        <v>0</v>
-      </c>
-      <c r="AY40">
-        <v>0</v>
-      </c>
-      <c r="AZ40">
-        <v>0</v>
-      </c>
-      <c r="BA40">
-        <v>0</v>
-      </c>
-      <c r="BB40">
-        <v>0</v>
-      </c>
-      <c r="BC40">
-        <v>0</v>
-      </c>
-      <c r="BD40">
-        <v>0</v>
-      </c>
-      <c r="BE40">
-        <v>0</v>
-      </c>
-      <c r="BF40">
-        <v>0</v>
-      </c>
-      <c r="BG40">
-        <v>0</v>
-      </c>
-      <c r="BH40">
-        <v>0</v>
-      </c>
-      <c r="BI40">
-        <v>0</v>
-      </c>
-      <c r="BJ40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:62" x14ac:dyDescent="0.45">
-      <c r="A41">
-        <v>1</v>
-      </c>
-      <c r="B41">
-        <v>0</v>
-      </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
-      <c r="K41">
-        <v>0</v>
-      </c>
-      <c r="L41">
-        <v>0</v>
-      </c>
-      <c r="M41">
-        <v>0</v>
-      </c>
-      <c r="N41">
-        <v>0</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>0</v>
-      </c>
-      <c r="R41">
-        <v>0</v>
-      </c>
-      <c r="S41">
-        <v>0</v>
-      </c>
-      <c r="T41">
-        <v>0</v>
-      </c>
-      <c r="U41">
-        <v>0</v>
-      </c>
-      <c r="V41">
-        <v>0</v>
-      </c>
-      <c r="W41">
-        <v>0</v>
-      </c>
-      <c r="X41">
-        <v>0</v>
-      </c>
-      <c r="Y41">
-        <v>0</v>
-      </c>
-      <c r="Z41">
-        <v>0</v>
-      </c>
-      <c r="AA41">
-        <v>0</v>
-      </c>
-      <c r="AB41">
-        <v>0</v>
-      </c>
-      <c r="AC41">
-        <v>0</v>
-      </c>
-      <c r="AD41">
-        <v>0</v>
-      </c>
-      <c r="AE41">
-        <v>0</v>
-      </c>
-      <c r="AF41">
-        <v>0</v>
-      </c>
-      <c r="AG41">
-        <v>0</v>
-      </c>
-      <c r="AH41">
-        <v>0</v>
-      </c>
-      <c r="AI41">
-        <v>0</v>
-      </c>
-      <c r="AJ41">
-        <v>0</v>
-      </c>
-      <c r="AK41">
-        <v>0</v>
-      </c>
-      <c r="AL41">
-        <v>0</v>
-      </c>
-      <c r="AM41">
-        <v>0</v>
-      </c>
-      <c r="AN41">
-        <v>0</v>
-      </c>
-      <c r="AO41">
-        <v>0</v>
-      </c>
-      <c r="AP41">
-        <v>0</v>
-      </c>
-      <c r="AQ41">
-        <v>0</v>
-      </c>
-      <c r="AR41">
-        <v>0</v>
-      </c>
-      <c r="AS41">
-        <v>0</v>
-      </c>
-      <c r="AT41">
-        <v>0</v>
-      </c>
-      <c r="AU41">
-        <v>0</v>
-      </c>
-      <c r="AV41">
-        <v>0</v>
-      </c>
-      <c r="AW41">
-        <v>0</v>
-      </c>
-      <c r="AX41">
-        <v>0</v>
-      </c>
-      <c r="AY41">
-        <v>0</v>
-      </c>
-      <c r="AZ41">
-        <v>0</v>
-      </c>
-      <c r="BA41">
-        <v>0</v>
-      </c>
-      <c r="BB41">
-        <v>0</v>
-      </c>
-      <c r="BC41">
-        <v>0</v>
-      </c>
-      <c r="BD41">
-        <v>0</v>
-      </c>
-      <c r="BE41">
-        <v>0</v>
-      </c>
-      <c r="BF41">
-        <v>0</v>
-      </c>
-      <c r="BG41">
-        <v>0</v>
-      </c>
-      <c r="BH41">
-        <v>0</v>
-      </c>
-      <c r="BI41">
-        <v>0</v>
-      </c>
-      <c r="BJ41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:62" x14ac:dyDescent="0.45">
-      <c r="A42">
-        <v>1</v>
-      </c>
-      <c r="B42">
-        <v>0</v>
-      </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
-        <v>0</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42">
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <v>0</v>
-      </c>
-      <c r="R42">
-        <v>0</v>
-      </c>
-      <c r="S42">
-        <v>0</v>
-      </c>
-      <c r="T42">
-        <v>0</v>
-      </c>
-      <c r="U42">
-        <v>0</v>
-      </c>
-      <c r="V42">
-        <v>0</v>
-      </c>
-      <c r="W42">
-        <v>0</v>
-      </c>
-      <c r="X42">
-        <v>0</v>
-      </c>
-      <c r="Y42">
-        <v>0</v>
-      </c>
-      <c r="Z42">
-        <v>0</v>
-      </c>
-      <c r="AA42">
-        <v>0</v>
-      </c>
-      <c r="AB42">
-        <v>0</v>
-      </c>
-      <c r="AC42">
-        <v>0</v>
-      </c>
-      <c r="AD42">
-        <v>0</v>
-      </c>
-      <c r="AE42">
-        <v>0</v>
-      </c>
-      <c r="AF42">
-        <v>0</v>
-      </c>
-      <c r="AG42">
-        <v>0</v>
-      </c>
-      <c r="AH42">
-        <v>0</v>
-      </c>
-      <c r="AI42">
-        <v>0</v>
-      </c>
-      <c r="AJ42">
-        <v>0</v>
-      </c>
-      <c r="AK42">
-        <v>0</v>
-      </c>
-      <c r="AL42">
-        <v>0</v>
-      </c>
-      <c r="AM42">
-        <v>0</v>
-      </c>
-      <c r="AN42">
-        <v>0</v>
-      </c>
-      <c r="AO42">
-        <v>0</v>
-      </c>
-      <c r="AP42">
-        <v>0</v>
-      </c>
-      <c r="AQ42">
-        <v>0</v>
-      </c>
-      <c r="AR42">
-        <v>0</v>
-      </c>
-      <c r="AS42">
-        <v>0</v>
-      </c>
-      <c r="AT42">
-        <v>0</v>
-      </c>
-      <c r="AU42">
-        <v>0</v>
-      </c>
-      <c r="AV42">
-        <v>0</v>
-      </c>
-      <c r="AW42">
-        <v>0</v>
-      </c>
-      <c r="AX42">
-        <v>0</v>
-      </c>
-      <c r="AY42">
-        <v>0</v>
-      </c>
-      <c r="AZ42">
-        <v>0</v>
-      </c>
-      <c r="BA42">
-        <v>0</v>
-      </c>
-      <c r="BB42">
-        <v>0</v>
-      </c>
-      <c r="BC42">
-        <v>0</v>
-      </c>
-      <c r="BD42">
-        <v>0</v>
-      </c>
-      <c r="BE42">
-        <v>0</v>
-      </c>
-      <c r="BF42">
-        <v>0</v>
-      </c>
-      <c r="BG42">
-        <v>0</v>
-      </c>
-      <c r="BH42">
-        <v>0</v>
-      </c>
-      <c r="BI42">
-        <v>0</v>
-      </c>
-      <c r="BJ42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:62" x14ac:dyDescent="0.45">
-      <c r="A43">
-        <v>1</v>
-      </c>
-      <c r="B43">
-        <v>0</v>
-      </c>
-      <c r="C43">
-        <v>0</v>
-      </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
-      <c r="H43">
-        <v>0</v>
-      </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
-      <c r="J43">
-        <v>0</v>
-      </c>
-      <c r="K43">
-        <v>0</v>
-      </c>
-      <c r="L43">
-        <v>0</v>
-      </c>
-      <c r="M43">
-        <v>0</v>
-      </c>
-      <c r="N43">
-        <v>0</v>
-      </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>0</v>
-      </c>
-      <c r="R43">
-        <v>0</v>
-      </c>
-      <c r="S43">
-        <v>0</v>
-      </c>
-      <c r="T43">
-        <v>0</v>
-      </c>
-      <c r="U43">
-        <v>0</v>
-      </c>
-      <c r="V43">
-        <v>0</v>
-      </c>
-      <c r="W43">
-        <v>0</v>
-      </c>
-      <c r="X43">
-        <v>0</v>
-      </c>
-      <c r="Y43">
-        <v>0</v>
-      </c>
-      <c r="Z43">
-        <v>0</v>
-      </c>
-      <c r="AA43">
-        <v>0</v>
-      </c>
-      <c r="AB43">
-        <v>0</v>
-      </c>
-      <c r="AC43">
-        <v>0</v>
-      </c>
-      <c r="AD43">
-        <v>0</v>
-      </c>
-      <c r="AE43">
-        <v>0</v>
-      </c>
-      <c r="AF43">
-        <v>0</v>
-      </c>
-      <c r="AG43">
-        <v>0</v>
-      </c>
-      <c r="AH43">
-        <v>0</v>
-      </c>
-      <c r="AI43">
-        <v>0</v>
-      </c>
-      <c r="AJ43">
-        <v>0</v>
-      </c>
-      <c r="AK43">
-        <v>0</v>
-      </c>
-      <c r="AL43">
-        <v>0</v>
-      </c>
-      <c r="AM43">
-        <v>0</v>
-      </c>
-      <c r="AN43">
-        <v>0</v>
-      </c>
-      <c r="AO43">
-        <v>0</v>
-      </c>
-      <c r="AP43">
-        <v>0</v>
-      </c>
-      <c r="AQ43">
-        <v>0</v>
-      </c>
-      <c r="AR43">
-        <v>0</v>
-      </c>
-      <c r="AS43">
-        <v>0</v>
-      </c>
-      <c r="AT43">
-        <v>0</v>
-      </c>
-      <c r="AU43">
-        <v>0</v>
-      </c>
-      <c r="AV43">
-        <v>0</v>
-      </c>
-      <c r="AW43">
-        <v>0</v>
-      </c>
-      <c r="AX43">
-        <v>0</v>
-      </c>
-      <c r="AY43">
-        <v>0</v>
-      </c>
-      <c r="AZ43">
-        <v>0</v>
-      </c>
-      <c r="BA43">
-        <v>0</v>
-      </c>
-      <c r="BB43">
-        <v>0</v>
-      </c>
-      <c r="BC43">
-        <v>0</v>
-      </c>
-      <c r="BD43">
-        <v>0</v>
-      </c>
-      <c r="BE43">
-        <v>0</v>
-      </c>
-      <c r="BF43">
-        <v>0</v>
-      </c>
-      <c r="BG43">
-        <v>0</v>
-      </c>
-      <c r="BH43">
-        <v>0</v>
-      </c>
-      <c r="BI43">
-        <v>0</v>
-      </c>
-      <c r="BJ43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:62" x14ac:dyDescent="0.45">
-      <c r="A44">
-        <v>1</v>
-      </c>
-      <c r="B44">
-        <v>0</v>
-      </c>
-      <c r="C44">
-        <v>0</v>
-      </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44">
-        <v>0</v>
-      </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
-      <c r="H44">
-        <v>0</v>
-      </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
-      <c r="J44">
-        <v>0</v>
-      </c>
-      <c r="K44">
-        <v>0</v>
-      </c>
-      <c r="L44">
-        <v>0</v>
-      </c>
-      <c r="M44">
-        <v>0</v>
-      </c>
-      <c r="N44">
-        <v>0</v>
-      </c>
-      <c r="O44">
-        <v>0</v>
-      </c>
-      <c r="P44">
-        <v>0</v>
-      </c>
-      <c r="Q44">
-        <v>0</v>
-      </c>
-      <c r="R44">
-        <v>0</v>
-      </c>
-      <c r="S44">
-        <v>0</v>
-      </c>
-      <c r="T44">
-        <v>0</v>
-      </c>
-      <c r="U44">
-        <v>0</v>
-      </c>
-      <c r="V44">
-        <v>0</v>
-      </c>
-      <c r="W44">
-        <v>0</v>
-      </c>
-      <c r="X44">
-        <v>0</v>
-      </c>
-      <c r="Y44">
-        <v>0</v>
-      </c>
-      <c r="Z44">
-        <v>0</v>
-      </c>
-      <c r="AA44">
-        <v>0</v>
-      </c>
-      <c r="AB44">
-        <v>0</v>
-      </c>
-      <c r="AC44">
-        <v>0</v>
-      </c>
-      <c r="AD44">
-        <v>0</v>
-      </c>
-      <c r="AE44">
-        <v>0</v>
-      </c>
-      <c r="AF44">
-        <v>0</v>
-      </c>
-      <c r="AG44">
-        <v>0</v>
-      </c>
-      <c r="AH44">
-        <v>0</v>
-      </c>
-      <c r="AI44">
-        <v>0</v>
-      </c>
-      <c r="AJ44">
-        <v>0</v>
-      </c>
-      <c r="AK44">
-        <v>0</v>
-      </c>
-      <c r="AL44">
-        <v>0</v>
-      </c>
-      <c r="AM44">
-        <v>0</v>
-      </c>
-      <c r="AN44">
-        <v>0</v>
-      </c>
-      <c r="AO44">
-        <v>0</v>
-      </c>
-      <c r="AP44">
-        <v>0</v>
-      </c>
-      <c r="AQ44">
-        <v>0</v>
-      </c>
-      <c r="AR44">
-        <v>0</v>
-      </c>
-      <c r="AS44">
-        <v>0</v>
-      </c>
-      <c r="AT44">
-        <v>0</v>
-      </c>
-      <c r="AU44">
-        <v>0</v>
-      </c>
-      <c r="AV44">
-        <v>0</v>
-      </c>
-      <c r="AW44">
-        <v>0</v>
-      </c>
-      <c r="AX44">
-        <v>0</v>
-      </c>
-      <c r="AY44">
-        <v>0</v>
-      </c>
-      <c r="AZ44">
-        <v>0</v>
-      </c>
-      <c r="BA44">
-        <v>0</v>
-      </c>
-      <c r="BB44">
-        <v>0</v>
-      </c>
-      <c r="BC44">
-        <v>0</v>
-      </c>
-      <c r="BD44">
-        <v>0</v>
-      </c>
-      <c r="BE44">
-        <v>0</v>
-      </c>
-      <c r="BF44">
-        <v>0</v>
-      </c>
-      <c r="BG44">
-        <v>0</v>
-      </c>
-      <c r="BH44">
-        <v>0</v>
-      </c>
-      <c r="BI44">
-        <v>0</v>
-      </c>
-      <c r="BJ44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:62" x14ac:dyDescent="0.45">
-      <c r="A45">
-        <v>1</v>
-      </c>
-      <c r="B45">
-        <v>0</v>
-      </c>
-      <c r="C45">
-        <v>0</v>
-      </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="F45">
-        <v>0</v>
-      </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
-      <c r="H45">
-        <v>0</v>
-      </c>
-      <c r="I45">
-        <v>0</v>
-      </c>
-      <c r="J45">
-        <v>0</v>
-      </c>
-      <c r="K45">
-        <v>0</v>
-      </c>
-      <c r="L45">
-        <v>0</v>
-      </c>
-      <c r="M45">
-        <v>0</v>
-      </c>
-      <c r="N45">
-        <v>0</v>
-      </c>
-      <c r="O45">
-        <v>0</v>
-      </c>
-      <c r="P45">
-        <v>0</v>
-      </c>
-      <c r="Q45">
-        <v>0</v>
-      </c>
-      <c r="R45">
-        <v>0</v>
-      </c>
-      <c r="S45">
-        <v>0</v>
-      </c>
-      <c r="T45">
-        <v>0</v>
-      </c>
-      <c r="U45">
-        <v>0</v>
-      </c>
-      <c r="V45">
-        <v>0</v>
-      </c>
-      <c r="W45">
-        <v>0</v>
-      </c>
-      <c r="X45">
-        <v>0</v>
-      </c>
-      <c r="Y45">
-        <v>0</v>
-      </c>
-      <c r="Z45">
-        <v>0</v>
-      </c>
-      <c r="AA45">
-        <v>0</v>
-      </c>
-      <c r="AB45">
-        <v>0</v>
-      </c>
-      <c r="AC45">
-        <v>0</v>
-      </c>
-      <c r="AD45">
-        <v>0</v>
-      </c>
-      <c r="AE45">
-        <v>0</v>
-      </c>
-      <c r="AF45">
-        <v>0</v>
-      </c>
-      <c r="AG45">
-        <v>0</v>
-      </c>
-      <c r="AH45">
-        <v>0</v>
-      </c>
-      <c r="AI45">
-        <v>0</v>
-      </c>
-      <c r="AJ45">
-        <v>0</v>
-      </c>
-      <c r="AK45">
-        <v>0</v>
-      </c>
-      <c r="AL45">
-        <v>0</v>
-      </c>
-      <c r="AM45">
-        <v>0</v>
-      </c>
-      <c r="AN45">
-        <v>0</v>
-      </c>
-      <c r="AO45">
-        <v>0</v>
-      </c>
-      <c r="AP45">
-        <v>0</v>
-      </c>
-      <c r="AQ45">
-        <v>0</v>
-      </c>
-      <c r="AR45">
-        <v>0</v>
-      </c>
-      <c r="AS45">
-        <v>0</v>
-      </c>
-      <c r="AT45">
-        <v>0</v>
-      </c>
-      <c r="AU45">
-        <v>0</v>
-      </c>
-      <c r="AV45">
-        <v>0</v>
-      </c>
-      <c r="AW45">
-        <v>0</v>
-      </c>
-      <c r="AX45">
-        <v>0</v>
-      </c>
-      <c r="AY45">
-        <v>0</v>
-      </c>
-      <c r="AZ45">
-        <v>0</v>
-      </c>
-      <c r="BA45">
-        <v>0</v>
-      </c>
-      <c r="BB45">
-        <v>0</v>
-      </c>
-      <c r="BC45">
-        <v>0</v>
-      </c>
-      <c r="BD45">
-        <v>0</v>
-      </c>
-      <c r="BE45">
-        <v>0</v>
-      </c>
-      <c r="BF45">
-        <v>0</v>
-      </c>
-      <c r="BG45">
-        <v>0</v>
-      </c>
-      <c r="BH45">
-        <v>0</v>
-      </c>
-      <c r="BI45">
-        <v>0</v>
-      </c>
-      <c r="BJ45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:62" x14ac:dyDescent="0.45">
-      <c r="A46">
-        <v>1</v>
-      </c>
-      <c r="B46">
-        <v>1</v>
-      </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-      <c r="D46">
-        <v>1</v>
-      </c>
-      <c r="E46">
-        <v>1</v>
-      </c>
-      <c r="F46">
-        <v>0</v>
-      </c>
-      <c r="G46">
-        <v>0</v>
-      </c>
-      <c r="H46">
-        <v>0</v>
-      </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
-      <c r="J46">
-        <v>0</v>
-      </c>
-      <c r="K46">
-        <v>0</v>
-      </c>
-      <c r="L46">
-        <v>0</v>
-      </c>
-      <c r="M46">
-        <v>0</v>
-      </c>
-      <c r="N46">
-        <v>0</v>
-      </c>
-      <c r="O46">
-        <v>0</v>
-      </c>
-      <c r="P46">
-        <v>0</v>
-      </c>
-      <c r="Q46">
-        <v>0</v>
-      </c>
-      <c r="R46">
-        <v>0</v>
-      </c>
-      <c r="S46">
-        <v>0</v>
-      </c>
-      <c r="T46">
-        <v>0</v>
-      </c>
-      <c r="U46">
-        <v>0</v>
-      </c>
-      <c r="V46">
-        <v>0</v>
-      </c>
-      <c r="W46">
-        <v>0</v>
-      </c>
-      <c r="X46">
-        <v>0</v>
-      </c>
-      <c r="Y46">
-        <v>0</v>
-      </c>
-      <c r="Z46">
-        <v>0</v>
-      </c>
-      <c r="AA46">
-        <v>0</v>
-      </c>
-      <c r="AB46">
-        <v>0</v>
-      </c>
-      <c r="AC46">
-        <v>0</v>
-      </c>
-      <c r="AD46">
-        <v>0</v>
-      </c>
-      <c r="AE46">
-        <v>0</v>
-      </c>
-      <c r="AF46">
-        <v>0</v>
-      </c>
-      <c r="AG46">
-        <v>0</v>
-      </c>
-      <c r="AH46">
-        <v>0</v>
-      </c>
-      <c r="AI46">
-        <v>0</v>
-      </c>
-      <c r="AJ46">
-        <v>0</v>
-      </c>
-      <c r="AK46">
-        <v>0</v>
-      </c>
-      <c r="AL46">
-        <v>0</v>
-      </c>
-      <c r="AM46">
-        <v>0</v>
-      </c>
-      <c r="AN46">
-        <v>0</v>
-      </c>
-      <c r="AO46">
-        <v>0</v>
-      </c>
-      <c r="AP46">
-        <v>0</v>
-      </c>
-      <c r="AQ46">
-        <v>0</v>
-      </c>
-      <c r="AR46">
-        <v>0</v>
-      </c>
-      <c r="AS46">
-        <v>0</v>
-      </c>
-      <c r="AT46">
-        <v>0</v>
-      </c>
-      <c r="AU46">
-        <v>0</v>
-      </c>
-      <c r="AV46">
-        <v>0</v>
-      </c>
-      <c r="AW46">
-        <v>0</v>
-      </c>
-      <c r="AX46">
-        <v>0</v>
-      </c>
-      <c r="AY46">
-        <v>0</v>
-      </c>
-      <c r="AZ46">
-        <v>0</v>
-      </c>
-      <c r="BA46">
-        <v>0</v>
-      </c>
-      <c r="BB46">
-        <v>0</v>
-      </c>
-      <c r="BC46">
-        <v>0</v>
-      </c>
-      <c r="BD46">
-        <v>0</v>
-      </c>
-      <c r="BE46">
-        <v>0</v>
-      </c>
-      <c r="BF46">
-        <v>0</v>
-      </c>
-      <c r="BG46">
-        <v>0</v>
-      </c>
-      <c r="BH46">
-        <v>0</v>
-      </c>
-      <c r="BI46">
-        <v>0</v>
-      </c>
-      <c r="BJ46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:62" x14ac:dyDescent="0.45">
-      <c r="A47">
-        <v>1</v>
-      </c>
-      <c r="B47">
-        <v>1</v>
-      </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
-      <c r="E47">
-        <v>1</v>
-      </c>
-      <c r="F47">
-        <v>0</v>
-      </c>
-      <c r="G47">
-        <v>0</v>
-      </c>
-      <c r="H47">
-        <v>0</v>
-      </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
-      <c r="J47">
-        <v>0</v>
-      </c>
-      <c r="K47">
-        <v>0</v>
-      </c>
-      <c r="L47">
-        <v>0</v>
-      </c>
-      <c r="M47">
-        <v>0</v>
-      </c>
-      <c r="N47">
-        <v>0</v>
-      </c>
-      <c r="O47">
-        <v>0</v>
-      </c>
-      <c r="P47">
-        <v>0</v>
-      </c>
-      <c r="Q47">
-        <v>0</v>
-      </c>
-      <c r="R47">
-        <v>0</v>
-      </c>
-      <c r="S47">
-        <v>0</v>
-      </c>
-      <c r="T47">
-        <v>0</v>
-      </c>
-      <c r="U47">
-        <v>0</v>
-      </c>
-      <c r="V47">
-        <v>0</v>
-      </c>
-      <c r="W47">
-        <v>0</v>
-      </c>
-      <c r="X47">
-        <v>0</v>
-      </c>
-      <c r="Y47">
-        <v>0</v>
-      </c>
-      <c r="Z47">
-        <v>0</v>
-      </c>
-      <c r="AA47">
-        <v>0</v>
-      </c>
-      <c r="AB47">
-        <v>0</v>
-      </c>
-      <c r="AC47">
-        <v>0</v>
-      </c>
-      <c r="AD47">
-        <v>0</v>
-      </c>
-      <c r="AE47">
-        <v>0</v>
-      </c>
-      <c r="AF47">
-        <v>0</v>
-      </c>
-      <c r="AG47">
-        <v>0</v>
-      </c>
-      <c r="AH47">
-        <v>0</v>
-      </c>
-      <c r="AI47">
-        <v>0</v>
-      </c>
-      <c r="AJ47">
-        <v>0</v>
-      </c>
-      <c r="AK47">
-        <v>0</v>
-      </c>
-      <c r="AL47">
-        <v>0</v>
-      </c>
-      <c r="AM47">
-        <v>0</v>
-      </c>
-      <c r="AN47">
-        <v>0</v>
-      </c>
-      <c r="AO47">
-        <v>0</v>
-      </c>
-      <c r="AP47">
-        <v>0</v>
-      </c>
-      <c r="AQ47">
-        <v>0</v>
-      </c>
-      <c r="AR47">
-        <v>0</v>
-      </c>
-      <c r="AS47">
-        <v>0</v>
-      </c>
-      <c r="AT47">
-        <v>0</v>
-      </c>
-      <c r="AU47">
-        <v>0</v>
-      </c>
-      <c r="AV47">
-        <v>0</v>
-      </c>
-      <c r="AW47">
-        <v>0</v>
-      </c>
-      <c r="AX47">
-        <v>0</v>
-      </c>
-      <c r="AY47">
-        <v>0</v>
-      </c>
-      <c r="AZ47">
-        <v>0</v>
-      </c>
-      <c r="BA47">
-        <v>0</v>
-      </c>
-      <c r="BB47">
-        <v>0</v>
-      </c>
-      <c r="BC47">
-        <v>0</v>
-      </c>
-      <c r="BD47">
-        <v>0</v>
-      </c>
-      <c r="BE47">
-        <v>0</v>
-      </c>
-      <c r="BF47">
-        <v>0</v>
-      </c>
-      <c r="BG47">
-        <v>0</v>
-      </c>
-      <c r="BH47">
-        <v>0</v>
-      </c>
-      <c r="BI47">
-        <v>0</v>
-      </c>
-      <c r="BJ47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:62" x14ac:dyDescent="0.45">
-      <c r="A48">
-        <v>1</v>
-      </c>
-      <c r="B48">
-        <v>1</v>
-      </c>
-      <c r="C48">
-        <v>1</v>
-      </c>
-      <c r="D48">
-        <v>1</v>
-      </c>
-      <c r="E48">
-        <v>1</v>
-      </c>
-      <c r="F48">
-        <v>1</v>
-      </c>
-      <c r="G48">
-        <v>1</v>
-      </c>
-      <c r="H48">
-        <v>1</v>
-      </c>
-      <c r="I48">
-        <v>1</v>
-      </c>
-      <c r="J48">
-        <v>0</v>
-      </c>
-      <c r="K48">
-        <v>0</v>
-      </c>
-      <c r="L48">
-        <v>0</v>
-      </c>
-      <c r="M48">
-        <v>0</v>
-      </c>
-      <c r="N48">
-        <v>0</v>
-      </c>
-      <c r="O48">
-        <v>0</v>
-      </c>
-      <c r="P48">
-        <v>0</v>
-      </c>
-      <c r="Q48">
-        <v>0</v>
-      </c>
-      <c r="R48">
-        <v>0</v>
-      </c>
-      <c r="S48">
-        <v>0</v>
-      </c>
-      <c r="T48">
-        <v>0</v>
-      </c>
-      <c r="U48">
-        <v>0</v>
-      </c>
-      <c r="V48">
-        <v>0</v>
-      </c>
-      <c r="W48">
-        <v>0</v>
-      </c>
-      <c r="X48">
-        <v>0</v>
-      </c>
-      <c r="Y48">
-        <v>0</v>
-      </c>
-      <c r="Z48">
-        <v>0</v>
-      </c>
-      <c r="AA48">
-        <v>0</v>
-      </c>
-      <c r="AB48">
-        <v>0</v>
-      </c>
-      <c r="AC48">
-        <v>0</v>
-      </c>
-      <c r="AD48">
-        <v>0</v>
-      </c>
-      <c r="AE48">
-        <v>0</v>
-      </c>
-      <c r="AF48">
-        <v>0</v>
-      </c>
-      <c r="AG48">
-        <v>0</v>
-      </c>
-      <c r="AH48">
-        <v>0</v>
-      </c>
-      <c r="AI48">
-        <v>0</v>
-      </c>
-      <c r="AJ48">
-        <v>0</v>
-      </c>
-      <c r="AK48">
-        <v>0</v>
-      </c>
-      <c r="AL48">
-        <v>0</v>
-      </c>
-      <c r="AM48">
-        <v>0</v>
-      </c>
-      <c r="AN48">
-        <v>0</v>
-      </c>
-      <c r="AO48">
-        <v>0</v>
-      </c>
-      <c r="AP48">
-        <v>0</v>
-      </c>
-      <c r="AQ48">
-        <v>0</v>
-      </c>
-      <c r="AR48">
-        <v>0</v>
-      </c>
-      <c r="AS48">
-        <v>0</v>
-      </c>
-      <c r="AT48">
-        <v>0</v>
-      </c>
-      <c r="AU48">
-        <v>0</v>
-      </c>
-      <c r="AV48">
-        <v>0</v>
-      </c>
-      <c r="AW48">
-        <v>0</v>
-      </c>
-      <c r="AX48">
-        <v>0</v>
-      </c>
-      <c r="AY48">
-        <v>0</v>
-      </c>
-      <c r="AZ48">
-        <v>0</v>
-      </c>
-      <c r="BA48">
-        <v>0</v>
-      </c>
-      <c r="BB48">
-        <v>0</v>
-      </c>
-      <c r="BC48">
-        <v>0</v>
-      </c>
-      <c r="BD48">
-        <v>0</v>
-      </c>
-      <c r="BE48">
-        <v>0</v>
-      </c>
-      <c r="BF48">
-        <v>0</v>
-      </c>
-      <c r="BG48">
-        <v>0</v>
-      </c>
-      <c r="BH48">
-        <v>0</v>
-      </c>
-      <c r="BI48">
-        <v>0</v>
-      </c>
-      <c r="BJ48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:62" x14ac:dyDescent="0.45">
-      <c r="A49">
-        <v>1</v>
-      </c>
-      <c r="B49">
-        <v>1</v>
-      </c>
-      <c r="C49">
-        <v>1</v>
-      </c>
-      <c r="D49">
-        <v>1</v>
-      </c>
-      <c r="E49">
-        <v>1</v>
-      </c>
-      <c r="F49">
-        <v>1</v>
-      </c>
-      <c r="G49">
-        <v>1</v>
-      </c>
-      <c r="H49">
-        <v>1</v>
-      </c>
-      <c r="I49">
-        <v>1</v>
-      </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
-      <c r="K49">
-        <v>0</v>
-      </c>
-      <c r="L49">
-        <v>0</v>
-      </c>
-      <c r="M49">
-        <v>0</v>
-      </c>
-      <c r="N49">
-        <v>0</v>
-      </c>
-      <c r="O49">
-        <v>0</v>
-      </c>
-      <c r="P49">
-        <v>0</v>
-      </c>
-      <c r="Q49">
-        <v>0</v>
-      </c>
-      <c r="R49">
-        <v>0</v>
-      </c>
-      <c r="S49">
-        <v>0</v>
-      </c>
-      <c r="T49">
-        <v>0</v>
-      </c>
-      <c r="U49">
-        <v>0</v>
-      </c>
-      <c r="V49">
-        <v>0</v>
-      </c>
-      <c r="W49">
-        <v>0</v>
-      </c>
-      <c r="X49">
-        <v>0</v>
-      </c>
-      <c r="Y49">
-        <v>0</v>
-      </c>
-      <c r="Z49">
-        <v>0</v>
-      </c>
-      <c r="AA49">
-        <v>0</v>
-      </c>
-      <c r="AB49">
-        <v>0</v>
-      </c>
-      <c r="AC49">
-        <v>0</v>
-      </c>
-      <c r="AD49">
-        <v>0</v>
-      </c>
-      <c r="AE49">
-        <v>0</v>
-      </c>
-      <c r="AF49">
-        <v>0</v>
-      </c>
-      <c r="AG49">
-        <v>0</v>
-      </c>
-      <c r="AH49">
-        <v>0</v>
-      </c>
-      <c r="AI49">
-        <v>0</v>
-      </c>
-      <c r="AJ49">
-        <v>0</v>
-      </c>
-      <c r="AK49">
-        <v>0</v>
-      </c>
-      <c r="AL49">
-        <v>0</v>
-      </c>
-      <c r="AM49">
-        <v>0</v>
-      </c>
-      <c r="AN49">
-        <v>0</v>
-      </c>
-      <c r="AO49">
-        <v>0</v>
-      </c>
-      <c r="AP49">
-        <v>0</v>
-      </c>
-      <c r="AQ49">
-        <v>0</v>
-      </c>
-      <c r="AR49">
-        <v>0</v>
-      </c>
-      <c r="AS49">
-        <v>0</v>
-      </c>
-      <c r="AT49">
-        <v>0</v>
-      </c>
-      <c r="AU49">
-        <v>0</v>
-      </c>
-      <c r="AV49">
-        <v>0</v>
-      </c>
-      <c r="AW49">
-        <v>0</v>
-      </c>
-      <c r="AX49">
-        <v>0</v>
-      </c>
-      <c r="AY49">
-        <v>0</v>
-      </c>
-      <c r="AZ49">
-        <v>0</v>
-      </c>
-      <c r="BA49">
-        <v>0</v>
-      </c>
-      <c r="BB49">
-        <v>0</v>
-      </c>
-      <c r="BC49">
-        <v>0</v>
-      </c>
-      <c r="BD49">
-        <v>0</v>
-      </c>
-      <c r="BE49">
-        <v>0</v>
-      </c>
-      <c r="BF49">
-        <v>0</v>
-      </c>
-      <c r="BG49">
-        <v>0</v>
-      </c>
-      <c r="BH49">
-        <v>0</v>
-      </c>
-      <c r="BI49">
-        <v>0</v>
-      </c>
-      <c r="BJ49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:62" x14ac:dyDescent="0.45">
-      <c r="A50">
-        <v>1</v>
-      </c>
-      <c r="B50">
-        <v>0</v>
-      </c>
-      <c r="C50">
-        <v>0</v>
-      </c>
-      <c r="D50">
-        <v>0</v>
-      </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-      <c r="F50">
-        <v>0</v>
-      </c>
-      <c r="G50">
-        <v>0</v>
-      </c>
-      <c r="H50">
-        <v>0</v>
-      </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
-      <c r="J50">
-        <v>0</v>
-      </c>
-      <c r="K50">
-        <v>0</v>
-      </c>
-      <c r="L50">
-        <v>0</v>
-      </c>
-      <c r="M50">
-        <v>0</v>
-      </c>
-      <c r="N50">
-        <v>0</v>
-      </c>
-      <c r="O50">
-        <v>0</v>
-      </c>
-      <c r="P50">
-        <v>0</v>
-      </c>
-      <c r="Q50">
-        <v>0</v>
-      </c>
-      <c r="R50">
-        <v>0</v>
-      </c>
-      <c r="S50">
-        <v>0</v>
-      </c>
-      <c r="T50">
-        <v>0</v>
-      </c>
-      <c r="U50">
-        <v>0</v>
-      </c>
-      <c r="V50">
-        <v>0</v>
-      </c>
-      <c r="W50">
-        <v>0</v>
-      </c>
-      <c r="X50">
-        <v>0</v>
-      </c>
-      <c r="Y50">
-        <v>0</v>
-      </c>
-      <c r="Z50">
-        <v>0</v>
-      </c>
-      <c r="AA50">
-        <v>0</v>
-      </c>
-      <c r="AB50">
-        <v>0</v>
-      </c>
-      <c r="AC50">
-        <v>0</v>
-      </c>
-      <c r="AD50">
-        <v>0</v>
-      </c>
-      <c r="AE50">
-        <v>0</v>
-      </c>
-      <c r="AF50">
-        <v>0</v>
-      </c>
-      <c r="AG50">
-        <v>0</v>
-      </c>
-      <c r="AH50">
-        <v>0</v>
-      </c>
-      <c r="AI50">
-        <v>0</v>
-      </c>
-      <c r="AJ50">
-        <v>0</v>
-      </c>
-      <c r="AK50">
-        <v>0</v>
-      </c>
-      <c r="AL50">
-        <v>0</v>
-      </c>
-      <c r="AM50">
-        <v>0</v>
-      </c>
-      <c r="AN50">
-        <v>0</v>
-      </c>
-      <c r="AO50">
-        <v>0</v>
-      </c>
-      <c r="AP50">
-        <v>0</v>
-      </c>
-      <c r="AQ50">
-        <v>0</v>
-      </c>
-      <c r="AR50">
-        <v>0</v>
-      </c>
-      <c r="AS50">
-        <v>0</v>
-      </c>
-      <c r="AT50">
-        <v>0</v>
-      </c>
-      <c r="AU50">
-        <v>0</v>
-      </c>
-      <c r="AV50">
-        <v>0</v>
-      </c>
-      <c r="AW50">
-        <v>0</v>
-      </c>
-      <c r="AX50">
-        <v>0</v>
-      </c>
-      <c r="AY50">
-        <v>0</v>
-      </c>
-      <c r="AZ50">
-        <v>0</v>
-      </c>
-      <c r="BA50">
-        <v>0</v>
-      </c>
-      <c r="BB50">
-        <v>0</v>
-      </c>
-      <c r="BC50">
-        <v>0</v>
-      </c>
-      <c r="BD50">
-        <v>0</v>
-      </c>
-      <c r="BE50">
-        <v>0</v>
-      </c>
-      <c r="BF50">
-        <v>1</v>
-      </c>
-      <c r="BG50">
-        <v>1</v>
-      </c>
-      <c r="BH50">
-        <v>1</v>
-      </c>
-      <c r="BI50">
-        <v>1</v>
-      </c>
-      <c r="BJ50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:62" x14ac:dyDescent="0.45">
-      <c r="A51">
-        <v>1</v>
-      </c>
-      <c r="B51">
-        <v>0</v>
-      </c>
-      <c r="C51">
-        <v>0</v>
-      </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-      <c r="F51">
-        <v>0</v>
-      </c>
-      <c r="G51">
-        <v>0</v>
-      </c>
-      <c r="H51">
-        <v>0</v>
-      </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
-      <c r="J51">
-        <v>0</v>
-      </c>
-      <c r="K51">
-        <v>0</v>
-      </c>
-      <c r="L51">
-        <v>0</v>
-      </c>
-      <c r="M51">
-        <v>0</v>
-      </c>
-      <c r="N51">
-        <v>0</v>
-      </c>
-      <c r="O51">
-        <v>0</v>
-      </c>
-      <c r="P51">
-        <v>0</v>
-      </c>
-      <c r="Q51">
-        <v>0</v>
-      </c>
-      <c r="R51">
-        <v>0</v>
-      </c>
-      <c r="S51">
-        <v>0</v>
-      </c>
-      <c r="T51">
-        <v>0</v>
-      </c>
-      <c r="U51">
-        <v>0</v>
-      </c>
-      <c r="V51">
-        <v>0</v>
-      </c>
-      <c r="W51">
-        <v>0</v>
-      </c>
-      <c r="X51">
-        <v>0</v>
-      </c>
-      <c r="Y51">
-        <v>0</v>
-      </c>
-      <c r="Z51">
-        <v>0</v>
-      </c>
-      <c r="AA51">
-        <v>0</v>
-      </c>
-      <c r="AB51">
-        <v>0</v>
-      </c>
-      <c r="AC51">
-        <v>0</v>
-      </c>
-      <c r="AD51">
-        <v>0</v>
-      </c>
-      <c r="AE51">
-        <v>0</v>
-      </c>
-      <c r="AF51">
-        <v>0</v>
-      </c>
-      <c r="AG51">
-        <v>0</v>
-      </c>
-      <c r="AH51">
-        <v>0</v>
-      </c>
-      <c r="AI51">
-        <v>0</v>
-      </c>
-      <c r="AJ51">
-        <v>0</v>
-      </c>
-      <c r="AK51">
-        <v>0</v>
-      </c>
-      <c r="AL51">
-        <v>0</v>
-      </c>
-      <c r="AM51">
-        <v>0</v>
-      </c>
-      <c r="AN51">
-        <v>0</v>
-      </c>
-      <c r="AO51">
-        <v>0</v>
-      </c>
-      <c r="AP51">
-        <v>0</v>
-      </c>
-      <c r="AQ51">
-        <v>0</v>
-      </c>
-      <c r="AR51">
-        <v>0</v>
-      </c>
-      <c r="AS51">
-        <v>0</v>
-      </c>
-      <c r="AT51">
-        <v>0</v>
-      </c>
-      <c r="AU51">
-        <v>0</v>
-      </c>
-      <c r="AV51">
-        <v>0</v>
-      </c>
-      <c r="AW51">
-        <v>0</v>
-      </c>
-      <c r="AX51">
-        <v>0</v>
-      </c>
-      <c r="AY51">
-        <v>0</v>
-      </c>
-      <c r="AZ51">
-        <v>0</v>
-      </c>
-      <c r="BA51">
-        <v>0</v>
-      </c>
-      <c r="BB51">
-        <v>0</v>
-      </c>
-      <c r="BC51">
-        <v>0</v>
-      </c>
-      <c r="BD51">
-        <v>0</v>
-      </c>
-      <c r="BE51">
-        <v>0</v>
-      </c>
-      <c r="BF51">
-        <v>1</v>
-      </c>
-      <c r="BG51">
-        <v>1</v>
-      </c>
-      <c r="BH51">
-        <v>1</v>
-      </c>
-      <c r="BI51">
-        <v>1</v>
-      </c>
-      <c r="BJ51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:62" x14ac:dyDescent="0.45">
-      <c r="A52">
-        <v>1</v>
-      </c>
-      <c r="B52">
-        <v>0</v>
-      </c>
-      <c r="C52">
-        <v>0</v>
-      </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-      <c r="F52">
-        <v>0</v>
-      </c>
-      <c r="G52">
-        <v>0</v>
-      </c>
-      <c r="H52">
-        <v>0</v>
-      </c>
-      <c r="I52">
-        <v>0</v>
-      </c>
-      <c r="J52">
-        <v>0</v>
-      </c>
-      <c r="K52">
-        <v>0</v>
-      </c>
-      <c r="L52">
-        <v>0</v>
-      </c>
-      <c r="M52">
-        <v>0</v>
-      </c>
-      <c r="N52">
-        <v>0</v>
-      </c>
-      <c r="O52">
-        <v>0</v>
-      </c>
-      <c r="P52">
-        <v>0</v>
-      </c>
-      <c r="Q52">
-        <v>0</v>
-      </c>
-      <c r="R52">
-        <v>0</v>
-      </c>
-      <c r="S52">
-        <v>0</v>
-      </c>
-      <c r="T52">
-        <v>0</v>
-      </c>
-      <c r="U52">
-        <v>0</v>
-      </c>
-      <c r="V52">
-        <v>0</v>
-      </c>
-      <c r="W52">
-        <v>0</v>
-      </c>
-      <c r="X52">
-        <v>0</v>
-      </c>
-      <c r="Y52">
-        <v>0</v>
-      </c>
-      <c r="Z52">
-        <v>0</v>
-      </c>
-      <c r="AA52">
-        <v>0</v>
-      </c>
-      <c r="AB52">
-        <v>0</v>
-      </c>
-      <c r="AC52">
-        <v>0</v>
-      </c>
-      <c r="AD52">
-        <v>0</v>
-      </c>
-      <c r="AE52">
-        <v>0</v>
-      </c>
-      <c r="AF52">
-        <v>0</v>
-      </c>
-      <c r="AG52">
-        <v>0</v>
-      </c>
-      <c r="AH52">
-        <v>0</v>
-      </c>
-      <c r="AI52">
-        <v>0</v>
-      </c>
-      <c r="AJ52">
-        <v>0</v>
-      </c>
-      <c r="AK52">
-        <v>0</v>
-      </c>
-      <c r="AL52">
-        <v>0</v>
-      </c>
-      <c r="AM52">
-        <v>0</v>
-      </c>
-      <c r="AN52">
-        <v>0</v>
-      </c>
-      <c r="AO52">
-        <v>0</v>
-      </c>
-      <c r="AP52">
-        <v>0</v>
-      </c>
-      <c r="AQ52">
-        <v>0</v>
-      </c>
-      <c r="AR52">
-        <v>0</v>
-      </c>
-      <c r="AS52">
-        <v>0</v>
-      </c>
-      <c r="AT52">
-        <v>0</v>
-      </c>
-      <c r="AU52">
-        <v>0</v>
-      </c>
-      <c r="AV52">
-        <v>0</v>
-      </c>
-      <c r="AW52">
-        <v>0</v>
-      </c>
-      <c r="AX52">
-        <v>0</v>
-      </c>
-      <c r="AY52">
-        <v>0</v>
-      </c>
-      <c r="AZ52">
-        <v>0</v>
-      </c>
-      <c r="BA52">
-        <v>0</v>
-      </c>
-      <c r="BB52">
-        <v>1</v>
-      </c>
-      <c r="BC52">
-        <v>1</v>
-      </c>
-      <c r="BD52">
-        <v>1</v>
-      </c>
-      <c r="BE52">
-        <v>1</v>
-      </c>
-      <c r="BF52">
-        <v>1</v>
-      </c>
-      <c r="BG52">
-        <v>1</v>
-      </c>
-      <c r="BH52">
-        <v>1</v>
-      </c>
-      <c r="BI52">
-        <v>1</v>
-      </c>
-      <c r="BJ52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:62" x14ac:dyDescent="0.45">
-      <c r="A53">
-        <v>1</v>
-      </c>
-      <c r="B53">
-        <v>0</v>
-      </c>
-      <c r="C53">
-        <v>0</v>
-      </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-      <c r="F53">
-        <v>0</v>
-      </c>
-      <c r="G53">
-        <v>0</v>
-      </c>
-      <c r="H53">
-        <v>0</v>
-      </c>
-      <c r="I53">
-        <v>0</v>
-      </c>
-      <c r="J53">
-        <v>0</v>
-      </c>
-      <c r="K53">
-        <v>0</v>
-      </c>
-      <c r="L53">
-        <v>0</v>
-      </c>
-      <c r="M53">
-        <v>0</v>
-      </c>
-      <c r="N53">
-        <v>0</v>
-      </c>
-      <c r="O53">
-        <v>0</v>
-      </c>
-      <c r="P53">
-        <v>0</v>
-      </c>
-      <c r="Q53">
-        <v>0</v>
-      </c>
-      <c r="R53">
-        <v>0</v>
-      </c>
-      <c r="S53">
-        <v>0</v>
-      </c>
-      <c r="T53">
-        <v>0</v>
-      </c>
-      <c r="U53">
-        <v>0</v>
-      </c>
-      <c r="V53">
-        <v>0</v>
-      </c>
-      <c r="W53">
-        <v>0</v>
-      </c>
-      <c r="X53">
-        <v>0</v>
-      </c>
-      <c r="Y53">
-        <v>0</v>
-      </c>
-      <c r="Z53">
-        <v>0</v>
-      </c>
-      <c r="AA53">
-        <v>0</v>
-      </c>
-      <c r="AB53">
-        <v>0</v>
-      </c>
-      <c r="AC53">
-        <v>0</v>
-      </c>
-      <c r="AD53">
-        <v>0</v>
-      </c>
-      <c r="AE53">
-        <v>0</v>
-      </c>
-      <c r="AF53">
-        <v>0</v>
-      </c>
-      <c r="AG53">
-        <v>0</v>
-      </c>
-      <c r="AH53">
-        <v>0</v>
-      </c>
-      <c r="AI53">
-        <v>0</v>
-      </c>
-      <c r="AJ53">
-        <v>0</v>
-      </c>
-      <c r="AK53">
-        <v>0</v>
-      </c>
-      <c r="AL53">
-        <v>0</v>
-      </c>
-      <c r="AM53">
-        <v>0</v>
-      </c>
-      <c r="AN53">
-        <v>0</v>
-      </c>
-      <c r="AO53">
-        <v>0</v>
-      </c>
-      <c r="AP53">
-        <v>0</v>
-      </c>
-      <c r="AQ53">
-        <v>0</v>
-      </c>
-      <c r="AR53">
-        <v>0</v>
-      </c>
-      <c r="AS53">
-        <v>0</v>
-      </c>
-      <c r="AT53">
-        <v>0</v>
-      </c>
-      <c r="AU53">
-        <v>0</v>
-      </c>
-      <c r="AV53">
-        <v>0</v>
-      </c>
-      <c r="AW53">
-        <v>0</v>
-      </c>
-      <c r="AX53">
-        <v>0</v>
-      </c>
-      <c r="AY53">
-        <v>0</v>
-      </c>
-      <c r="AZ53">
-        <v>0</v>
-      </c>
-      <c r="BA53">
-        <v>0</v>
-      </c>
-      <c r="BB53">
-        <v>1</v>
-      </c>
-      <c r="BC53">
-        <v>1</v>
-      </c>
-      <c r="BD53">
-        <v>1</v>
-      </c>
-      <c r="BE53">
-        <v>1</v>
-      </c>
-      <c r="BF53">
-        <v>1</v>
-      </c>
-      <c r="BG53">
-        <v>1</v>
-      </c>
-      <c r="BH53">
-        <v>1</v>
-      </c>
-      <c r="BI53">
-        <v>1</v>
-      </c>
-      <c r="BJ53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:62" x14ac:dyDescent="0.45">
-      <c r="A54">
-        <v>1</v>
-      </c>
-      <c r="B54">
-        <v>1</v>
-      </c>
-      <c r="C54">
-        <v>1</v>
-      </c>
-      <c r="D54">
-        <v>1</v>
-      </c>
-      <c r="E54">
-        <v>1</v>
-      </c>
-      <c r="F54">
-        <v>1</v>
-      </c>
-      <c r="G54">
-        <v>1</v>
-      </c>
-      <c r="H54">
-        <v>1</v>
-      </c>
-      <c r="I54">
-        <v>1</v>
-      </c>
-      <c r="J54">
-        <v>1</v>
-      </c>
-      <c r="K54">
-        <v>1</v>
-      </c>
-      <c r="L54">
-        <v>1</v>
-      </c>
-      <c r="M54">
-        <v>1</v>
-      </c>
-      <c r="N54">
-        <v>1</v>
-      </c>
-      <c r="O54">
-        <v>1</v>
-      </c>
-      <c r="P54">
-        <v>1</v>
-      </c>
-      <c r="Q54">
-        <v>1</v>
-      </c>
-      <c r="R54">
-        <v>1</v>
-      </c>
-      <c r="S54">
-        <v>1</v>
-      </c>
-      <c r="T54">
-        <v>1</v>
-      </c>
-      <c r="U54">
-        <v>1</v>
-      </c>
-      <c r="V54">
-        <v>1</v>
-      </c>
-      <c r="W54">
-        <v>1</v>
-      </c>
-      <c r="X54">
-        <v>1</v>
-      </c>
-      <c r="Y54">
-        <v>1</v>
-      </c>
-      <c r="Z54">
-        <v>1</v>
-      </c>
-      <c r="AA54">
-        <v>1</v>
-      </c>
-      <c r="AB54">
-        <v>1</v>
-      </c>
-      <c r="AC54">
-        <v>1</v>
-      </c>
-      <c r="AD54">
-        <v>1</v>
-      </c>
-      <c r="AE54">
-        <v>1</v>
-      </c>
-      <c r="AF54">
-        <v>1</v>
-      </c>
-      <c r="AG54">
-        <v>1</v>
-      </c>
-      <c r="AH54">
-        <v>1</v>
-      </c>
-      <c r="AI54">
-        <v>1</v>
-      </c>
-      <c r="AJ54">
-        <v>1</v>
-      </c>
-      <c r="AK54">
-        <v>1</v>
-      </c>
-      <c r="AL54">
-        <v>1</v>
-      </c>
-      <c r="AM54">
-        <v>1</v>
-      </c>
-      <c r="AN54">
-        <v>1</v>
-      </c>
-      <c r="AO54">
-        <v>1</v>
-      </c>
-      <c r="AP54">
-        <v>1</v>
-      </c>
-      <c r="AQ54">
-        <v>1</v>
-      </c>
-      <c r="AR54">
-        <v>1</v>
-      </c>
-      <c r="AS54">
-        <v>1</v>
-      </c>
-      <c r="AT54">
-        <v>1</v>
-      </c>
-      <c r="AU54">
-        <v>1</v>
-      </c>
-      <c r="AV54">
-        <v>1</v>
-      </c>
-      <c r="AW54">
-        <v>1</v>
-      </c>
-      <c r="AX54">
-        <v>1</v>
-      </c>
-      <c r="AY54">
-        <v>1</v>
-      </c>
-      <c r="AZ54">
-        <v>1</v>
-      </c>
-      <c r="BA54">
-        <v>1</v>
-      </c>
-      <c r="BB54">
-        <v>1</v>
-      </c>
-      <c r="BC54">
-        <v>1</v>
-      </c>
-      <c r="BD54">
-        <v>1</v>
-      </c>
-      <c r="BE54">
-        <v>1</v>
-      </c>
-      <c r="BF54">
-        <v>1</v>
-      </c>
-      <c r="BG54">
-        <v>1</v>
-      </c>
-      <c r="BH54">
-        <v>1</v>
-      </c>
-      <c r="BI54">
-        <v>1</v>
-      </c>
-      <c r="BJ54">
+      <c r="BK35">
+        <v>1</v>
+      </c>
+      <c r="BL35">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18"/>
+  <conditionalFormatting sqref="A1:BL17">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18:BL35">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>